--- a/data/0049.xlsx
+++ b/data/0049.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43049,6 +43049,41 @@
         <v>15376300</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>0049</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>OCNCASH</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>6634600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0049.xlsx
+++ b/data/0049.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43084,6 +43084,41 @@
         <v>6634600</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>0049</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>OCNCASH</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>6193900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0049.xlsx
+++ b/data/0049.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43119,6 +43119,41 @@
         <v>6193900</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>0049</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>OCNCASH</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>3288500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0049.xlsx
+++ b/data/0049.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43154,6 +43154,41 @@
         <v>3288500</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>0049</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>OCNCASH</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>4480100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0049.xlsx
+++ b/data/0049.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43189,6 +43189,41 @@
         <v>4480100</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>0049</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>OCNCASH</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>4816900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0049.xlsx
+++ b/data/0049.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43224,6 +43224,41 @@
         <v>4816900</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>0049</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>OCNCASH</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>5897800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0049.xlsx
+++ b/data/0049.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43259,6 +43259,41 @@
         <v>5897800</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>0049</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>OCNCASH</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>3492400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0049.xlsx
+++ b/data/0049.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43294,6 +43294,41 @@
         <v>3492400</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>0049</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>OCNCASH</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>3115900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0049.xlsx
+++ b/data/0049.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43329,6 +43329,41 @@
         <v>3115900</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>0049</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>OCNCASH</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>5978000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0049.xlsx
+++ b/data/0049.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43364,6 +43364,41 @@
         <v>5978000</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>0049</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>OCNCASH</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>3759200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0049.xlsx
+++ b/data/0049.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43399,6 +43399,41 @@
         <v>3759200</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>0049</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>OCNCASH</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>3944500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0049.xlsx
+++ b/data/0049.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43434,6 +43434,41 @@
         <v>3944500</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>0049</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>OCNCASH</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>2847200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0049.xlsx
+++ b/data/0049.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43469,6 +43469,76 @@
         <v>2847200</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>0049</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>OCNCASH</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>1604700</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>0049</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>OCNCASH</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>2677500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0049.xlsx
+++ b/data/0049.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43539,6 +43539,76 @@
         <v>2677500</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>0049</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>OCNCASH</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>3904000</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>0049</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>OCNCASH</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>5563800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0049.xlsx
+++ b/data/0049.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43609,6 +43609,41 @@
         <v>5563800</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>0049</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>OCNCASH</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>27112000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0049.xlsx
+++ b/data/0049.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43644,6 +43644,41 @@
         <v>27112000</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>0049</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>OCNCASH</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>12986300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0049.xlsx
+++ b/data/0049.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43679,6 +43679,41 @@
         <v>12986300</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>0049</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>OCNCASH</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>33885100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0049.xlsx
+++ b/data/0049.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43714,6 +43714,41 @@
         <v>33885100</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>0049</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>OCNCASH</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>14943500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0049.xlsx
+++ b/data/0049.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43749,6 +43749,76 @@
         <v>14943500</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>0049</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>OCNCASH</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>8488900</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>0049</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>OCNCASH</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>11665300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0049.xlsx
+++ b/data/0049.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43819,6 +43819,41 @@
         <v>11665300</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>0049</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>OCNCASH</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>20515000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0049.xlsx
+++ b/data/0049.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43854,6 +43854,41 @@
         <v>20515000</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>0049</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>OCNCASH</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>9292800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0049.xlsx
+++ b/data/0049.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2048"/>
+  <dimension ref="A1:I2049"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72134,6 +72134,41 @@
         <v>9292800</v>
       </c>
     </row>
+    <row r="2049">
+      <c r="A2049" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2049" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2049" t="inlineStr">
+        <is>
+          <t>0049</t>
+        </is>
+      </c>
+      <c r="D2049" t="inlineStr">
+        <is>
+          <t>OCNCASH</t>
+        </is>
+      </c>
+      <c r="E2049" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F2049" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="G2049" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="H2049" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="I2049" t="n">
+        <v>6988000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0049.xlsx
+++ b/data/0049.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2049"/>
+  <dimension ref="A1:I2050"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72169,6 +72169,41 @@
         <v>6988000</v>
       </c>
     </row>
+    <row r="2050">
+      <c r="A2050" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2050" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2050" t="inlineStr">
+        <is>
+          <t>0049</t>
+        </is>
+      </c>
+      <c r="D2050" t="inlineStr">
+        <is>
+          <t>OCNCASH</t>
+        </is>
+      </c>
+      <c r="E2050" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F2050" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G2050" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H2050" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="I2050" t="n">
+        <v>7533800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0049.xlsx
+++ b/data/0049.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2050"/>
+  <dimension ref="A1:I2051"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72204,6 +72204,41 @@
         <v>7533800</v>
       </c>
     </row>
+    <row r="2051">
+      <c r="A2051" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2051" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2051" t="inlineStr">
+        <is>
+          <t>0049</t>
+        </is>
+      </c>
+      <c r="D2051" t="inlineStr">
+        <is>
+          <t>OCNCASH</t>
+        </is>
+      </c>
+      <c r="E2051" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F2051" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G2051" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="H2051" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="I2051" t="n">
+        <v>5629400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0049.xlsx
+++ b/data/0049.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2051"/>
+  <dimension ref="A1:I2052"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72239,6 +72239,41 @@
         <v>5629400</v>
       </c>
     </row>
+    <row r="2052">
+      <c r="A2052" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2052" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2052" t="inlineStr">
+        <is>
+          <t>0049</t>
+        </is>
+      </c>
+      <c r="D2052" t="inlineStr">
+        <is>
+          <t>OCNCASH</t>
+        </is>
+      </c>
+      <c r="E2052" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="F2052" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G2052" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H2052" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I2052" t="n">
+        <v>5756300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0049.xlsx
+++ b/data/0049.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2052"/>
+  <dimension ref="A1:I2053"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72274,6 +72274,41 @@
         <v>5756300</v>
       </c>
     </row>
+    <row r="2053">
+      <c r="A2053" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2053" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2053" t="inlineStr">
+        <is>
+          <t>0049</t>
+        </is>
+      </c>
+      <c r="D2053" t="inlineStr">
+        <is>
+          <t>OCNCASH</t>
+        </is>
+      </c>
+      <c r="E2053" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="F2053" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G2053" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H2053" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="I2053" t="n">
+        <v>6768000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0049.xlsx
+++ b/data/0049.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2053"/>
+  <dimension ref="A1:I2054"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72309,6 +72309,41 @@
         <v>6768000</v>
       </c>
     </row>
+    <row r="2054">
+      <c r="A2054" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2054" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2054" t="inlineStr">
+        <is>
+          <t>0049</t>
+        </is>
+      </c>
+      <c r="D2054" t="inlineStr">
+        <is>
+          <t>OCNCASH</t>
+        </is>
+      </c>
+      <c r="E2054" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F2054" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="G2054" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="H2054" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="I2054" t="n">
+        <v>2439300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0049.xlsx
+++ b/data/0049.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2054"/>
+  <dimension ref="A1:I2055"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72344,6 +72344,41 @@
         <v>2439300</v>
       </c>
     </row>
+    <row r="2055">
+      <c r="A2055" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2055" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2055" t="inlineStr">
+        <is>
+          <t>0049</t>
+        </is>
+      </c>
+      <c r="D2055" t="inlineStr">
+        <is>
+          <t>OCNCASH</t>
+        </is>
+      </c>
+      <c r="E2055" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="F2055" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="G2055" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="H2055" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I2055" t="n">
+        <v>3956600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0049.xlsx
+++ b/data/0049.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2055"/>
+  <dimension ref="A1:I2056"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72379,6 +72379,41 @@
         <v>3956600</v>
       </c>
     </row>
+    <row r="2056">
+      <c r="A2056" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2056" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2056" t="inlineStr">
+        <is>
+          <t>0049</t>
+        </is>
+      </c>
+      <c r="D2056" t="inlineStr">
+        <is>
+          <t>OCNCASH</t>
+        </is>
+      </c>
+      <c r="E2056" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="F2056" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G2056" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="H2056" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I2056" t="n">
+        <v>5213400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0049.xlsx
+++ b/data/0049.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2056"/>
+  <dimension ref="A1:I2057"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72414,6 +72414,41 @@
         <v>5213400</v>
       </c>
     </row>
+    <row r="2057">
+      <c r="A2057" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2057" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2057" t="inlineStr">
+        <is>
+          <t>0049</t>
+        </is>
+      </c>
+      <c r="D2057" t="inlineStr">
+        <is>
+          <t>OCNCASH</t>
+        </is>
+      </c>
+      <c r="E2057" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F2057" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G2057" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H2057" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I2057" t="n">
+        <v>4745500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0049.xlsx
+++ b/data/0049.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2057"/>
+  <dimension ref="A1:I2058"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72449,6 +72449,41 @@
         <v>4745500</v>
       </c>
     </row>
+    <row r="2058">
+      <c r="A2058" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2058" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2058" t="inlineStr">
+        <is>
+          <t>0049</t>
+        </is>
+      </c>
+      <c r="D2058" t="inlineStr">
+        <is>
+          <t>OCNCASH</t>
+        </is>
+      </c>
+      <c r="E2058" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F2058" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="G2058" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="H2058" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="I2058" t="n">
+        <v>7540700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0049.xlsx
+++ b/data/0049.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2058"/>
+  <dimension ref="A1:I2059"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72484,6 +72484,41 @@
         <v>7540700</v>
       </c>
     </row>
+    <row r="2059">
+      <c r="A2059" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2059" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2059" t="inlineStr">
+        <is>
+          <t>0049</t>
+        </is>
+      </c>
+      <c r="D2059" t="inlineStr">
+        <is>
+          <t>OCNCASH</t>
+        </is>
+      </c>
+      <c r="E2059" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="F2059" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G2059" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="H2059" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="I2059" t="n">
+        <v>10977300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0049.xlsx
+++ b/data/0049.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2059"/>
+  <dimension ref="A1:I2060"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72519,6 +72519,41 @@
         <v>10977300</v>
       </c>
     </row>
+    <row r="2060">
+      <c r="A2060" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2060" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2060" t="inlineStr">
+        <is>
+          <t>0049</t>
+        </is>
+      </c>
+      <c r="D2060" t="inlineStr">
+        <is>
+          <t>OCNCASH</t>
+        </is>
+      </c>
+      <c r="E2060" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="F2060" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G2060" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="H2060" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="I2060" t="n">
+        <v>7434300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0049.xlsx
+++ b/data/0049.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2060"/>
+  <dimension ref="A1:I2061"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72554,6 +72554,41 @@
         <v>7434300</v>
       </c>
     </row>
+    <row r="2061">
+      <c r="A2061" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2061" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2061" t="inlineStr">
+        <is>
+          <t>0049</t>
+        </is>
+      </c>
+      <c r="D2061" t="inlineStr">
+        <is>
+          <t>OCNCASH</t>
+        </is>
+      </c>
+      <c r="E2061" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="F2061" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G2061" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H2061" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="I2061" t="n">
+        <v>6948700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0049.xlsx
+++ b/data/0049.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2061"/>
+  <dimension ref="A1:I2062"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72589,6 +72589,41 @@
         <v>6948700</v>
       </c>
     </row>
+    <row r="2062">
+      <c r="A2062" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2062" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2062" t="inlineStr">
+        <is>
+          <t>0049</t>
+        </is>
+      </c>
+      <c r="D2062" t="inlineStr">
+        <is>
+          <t>OCNCASH</t>
+        </is>
+      </c>
+      <c r="E2062" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F2062" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G2062" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H2062" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="I2062" t="n">
+        <v>2739900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0049.xlsx
+++ b/data/0049.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2062"/>
+  <dimension ref="A1:I2063"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72624,6 +72624,41 @@
         <v>2739900</v>
       </c>
     </row>
+    <row r="2063">
+      <c r="A2063" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2063" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2063" t="inlineStr">
+        <is>
+          <t>0049</t>
+        </is>
+      </c>
+      <c r="D2063" t="inlineStr">
+        <is>
+          <t>OCNCASH</t>
+        </is>
+      </c>
+      <c r="E2063" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F2063" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="G2063" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H2063" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I2063" t="n">
+        <v>2073500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0049.xlsx
+++ b/data/0049.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2752"/>
+  <dimension ref="A1:I2753"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96774,6 +96774,41 @@
         <v>2073500</v>
       </c>
     </row>
+    <row r="2753">
+      <c r="A2753" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B2753" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C2753" t="inlineStr">
+        <is>
+          <t>0049</t>
+        </is>
+      </c>
+      <c r="D2753" t="inlineStr">
+        <is>
+          <t>OCNCASH</t>
+        </is>
+      </c>
+      <c r="E2753" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F2753" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G2753" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="H2753" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="I2753" t="n">
+        <v>10168900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0049.xlsx
+++ b/data/0049.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2753"/>
+  <dimension ref="A1:I2754"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96809,6 +96809,41 @@
         <v>10168900</v>
       </c>
     </row>
+    <row r="2754">
+      <c r="A2754" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B2754" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C2754" t="inlineStr">
+        <is>
+          <t>0049</t>
+        </is>
+      </c>
+      <c r="D2754" t="inlineStr">
+        <is>
+          <t>OCNCASH</t>
+        </is>
+      </c>
+      <c r="E2754" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F2754" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="G2754" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H2754" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="I2754" t="n">
+        <v>7492800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0049.xlsx
+++ b/data/0049.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2754"/>
+  <dimension ref="A1:I2755"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96844,6 +96844,41 @@
         <v>7492800</v>
       </c>
     </row>
+    <row r="2755">
+      <c r="A2755" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B2755" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C2755" t="inlineStr">
+        <is>
+          <t>0049</t>
+        </is>
+      </c>
+      <c r="D2755" t="inlineStr">
+        <is>
+          <t>OCNCASH</t>
+        </is>
+      </c>
+      <c r="E2755" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="F2755" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="G2755" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H2755" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I2755" t="n">
+        <v>2041500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0049.xlsx
+++ b/data/0049.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2755"/>
+  <dimension ref="A1:I2756"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96879,6 +96879,41 @@
         <v>2041500</v>
       </c>
     </row>
+    <row r="2756">
+      <c r="A2756" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B2756" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C2756" t="inlineStr">
+        <is>
+          <t>0049</t>
+        </is>
+      </c>
+      <c r="D2756" t="inlineStr">
+        <is>
+          <t>OCNCASH</t>
+        </is>
+      </c>
+      <c r="E2756" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="F2756" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G2756" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="H2756" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="I2756" t="n">
+        <v>3765500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0049.xlsx
+++ b/data/0049.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2756"/>
+  <dimension ref="A1:I2757"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96914,6 +96914,41 @@
         <v>3765500</v>
       </c>
     </row>
+    <row r="2757">
+      <c r="A2757" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B2757" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C2757" t="inlineStr">
+        <is>
+          <t>0049</t>
+        </is>
+      </c>
+      <c r="D2757" t="inlineStr">
+        <is>
+          <t>OCNCASH</t>
+        </is>
+      </c>
+      <c r="E2757" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F2757" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G2757" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="H2757" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="I2757" t="n">
+        <v>2084500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0049.xlsx
+++ b/data/0049.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2757"/>
+  <dimension ref="A1:I2758"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96949,6 +96949,41 @@
         <v>2084500</v>
       </c>
     </row>
+    <row r="2758">
+      <c r="A2758" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B2758" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C2758" t="inlineStr">
+        <is>
+          <t>0049</t>
+        </is>
+      </c>
+      <c r="D2758" t="inlineStr">
+        <is>
+          <t>OCNCASH</t>
+        </is>
+      </c>
+      <c r="E2758" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F2758" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="G2758" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H2758" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="I2758" t="n">
+        <v>6355600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0049.xlsx
+++ b/data/0049.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2758"/>
+  <dimension ref="A1:I2759"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96984,6 +96984,41 @@
         <v>6355600</v>
       </c>
     </row>
+    <row r="2759">
+      <c r="A2759" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B2759" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C2759" t="inlineStr">
+        <is>
+          <t>0049</t>
+        </is>
+      </c>
+      <c r="D2759" t="inlineStr">
+        <is>
+          <t>OCNCASH</t>
+        </is>
+      </c>
+      <c r="E2759" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="F2759" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G2759" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="H2759" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I2759" t="n">
+        <v>1201500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0049.xlsx
+++ b/data/0049.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2759"/>
+  <dimension ref="A1:I2760"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -97019,6 +97019,41 @@
         <v>1201500</v>
       </c>
     </row>
+    <row r="2760">
+      <c r="A2760" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B2760" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C2760" t="inlineStr">
+        <is>
+          <t>0049</t>
+        </is>
+      </c>
+      <c r="D2760" t="inlineStr">
+        <is>
+          <t>OCNCASH</t>
+        </is>
+      </c>
+      <c r="E2760" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F2760" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G2760" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H2760" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="I2760" t="n">
+        <v>5337500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0049.xlsx
+++ b/data/0049.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2760"/>
+  <dimension ref="A1:I2761"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -97054,6 +97054,41 @@
         <v>5337500</v>
       </c>
     </row>
+    <row r="2761">
+      <c r="A2761" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B2761" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C2761" t="inlineStr">
+        <is>
+          <t>0049</t>
+        </is>
+      </c>
+      <c r="D2761" t="inlineStr">
+        <is>
+          <t>OCNCASH</t>
+        </is>
+      </c>
+      <c r="E2761" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="F2761" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="G2761" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H2761" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="I2761" t="n">
+        <v>23721000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0049.xlsx
+++ b/data/0049.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2761"/>
+  <dimension ref="A1:I2762"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -97089,6 +97089,41 @@
         <v>23721000</v>
       </c>
     </row>
+    <row r="2762">
+      <c r="A2762" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B2762" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C2762" t="inlineStr">
+        <is>
+          <t>0049</t>
+        </is>
+      </c>
+      <c r="D2762" t="inlineStr">
+        <is>
+          <t>OCNCASH</t>
+        </is>
+      </c>
+      <c r="E2762" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="F2762" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="G2762" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="H2762" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="I2762" t="n">
+        <v>9241500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0049.xlsx
+++ b/data/0049.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2762"/>
+  <dimension ref="A1:I2764"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -97124,6 +97124,76 @@
         <v>9241500</v>
       </c>
     </row>
+    <row r="2763">
+      <c r="A2763" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B2763" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C2763" t="inlineStr">
+        <is>
+          <t>0049</t>
+        </is>
+      </c>
+      <c r="D2763" t="inlineStr">
+        <is>
+          <t>OCNCASH</t>
+        </is>
+      </c>
+      <c r="E2763" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F2763" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="G2763" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="H2763" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="I2763" t="n">
+        <v>5338300</v>
+      </c>
+    </row>
+    <row r="2764">
+      <c r="A2764" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B2764" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C2764" t="inlineStr">
+        <is>
+          <t>0049</t>
+        </is>
+      </c>
+      <c r="D2764" t="inlineStr">
+        <is>
+          <t>OCNCASH</t>
+        </is>
+      </c>
+      <c r="E2764" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="F2764" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="G2764" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H2764" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="I2764" t="n">
+        <v>9407200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0049.xlsx
+++ b/data/0049.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2764"/>
+  <dimension ref="A1:I2765"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -97194,6 +97194,41 @@
         <v>9407200</v>
       </c>
     </row>
+    <row r="2765">
+      <c r="A2765" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B2765" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C2765" t="inlineStr">
+        <is>
+          <t>0049</t>
+        </is>
+      </c>
+      <c r="D2765" t="inlineStr">
+        <is>
+          <t>OCNCASH</t>
+        </is>
+      </c>
+      <c r="E2765" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F2765" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="G2765" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="H2765" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="I2765" t="n">
+        <v>16930600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0049.xlsx
+++ b/data/0049.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2765"/>
+  <dimension ref="A1:I2768"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -97229,6 +97229,111 @@
         <v>16930600</v>
       </c>
     </row>
+    <row r="2766">
+      <c r="A2766" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B2766" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C2766" t="inlineStr">
+        <is>
+          <t>0049</t>
+        </is>
+      </c>
+      <c r="D2766" t="inlineStr">
+        <is>
+          <t>OCNCASH</t>
+        </is>
+      </c>
+      <c r="E2766" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="F2766" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G2766" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="H2766" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="I2766" t="n">
+        <v>40324200</v>
+      </c>
+    </row>
+    <row r="2767">
+      <c r="A2767" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B2767" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C2767" t="inlineStr">
+        <is>
+          <t>0049</t>
+        </is>
+      </c>
+      <c r="D2767" t="inlineStr">
+        <is>
+          <t>OCNCASH</t>
+        </is>
+      </c>
+      <c r="E2767" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F2767" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="G2767" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="H2767" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="I2767" t="n">
+        <v>50026000</v>
+      </c>
+    </row>
+    <row r="2768">
+      <c r="A2768" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B2768" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C2768" t="inlineStr">
+        <is>
+          <t>0049</t>
+        </is>
+      </c>
+      <c r="D2768" t="inlineStr">
+        <is>
+          <t>OCNCASH</t>
+        </is>
+      </c>
+      <c r="E2768" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="F2768" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="G2768" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="H2768" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="I2768" t="n">
+        <v>41301100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0049.xlsx
+++ b/data/0049.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2768"/>
+  <dimension ref="A1:I2769"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -97334,6 +97334,41 @@
         <v>41301100</v>
       </c>
     </row>
+    <row r="2769">
+      <c r="A2769" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B2769" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C2769" t="inlineStr">
+        <is>
+          <t>0049</t>
+        </is>
+      </c>
+      <c r="D2769" t="inlineStr">
+        <is>
+          <t>OCNCASH</t>
+        </is>
+      </c>
+      <c r="E2769" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="F2769" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G2769" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="H2769" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="I2769" t="n">
+        <v>29120300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0049.xlsx
+++ b/data/0049.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2769"/>
+  <dimension ref="A1:I2770"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -97369,6 +97369,41 @@
         <v>29120300</v>
       </c>
     </row>
+    <row r="2770">
+      <c r="A2770" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B2770" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C2770" t="inlineStr">
+        <is>
+          <t>0049</t>
+        </is>
+      </c>
+      <c r="D2770" t="inlineStr">
+        <is>
+          <t>OCNCASH</t>
+        </is>
+      </c>
+      <c r="E2770" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="F2770" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="G2770" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="H2770" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="I2770" t="n">
+        <v>6855300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0049.xlsx
+++ b/data/0049.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2770"/>
+  <dimension ref="A1:I2773"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -97404,6 +97404,111 @@
         <v>6855300</v>
       </c>
     </row>
+    <row r="2771">
+      <c r="A2771" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B2771" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C2771" t="inlineStr">
+        <is>
+          <t>0049</t>
+        </is>
+      </c>
+      <c r="D2771" t="inlineStr">
+        <is>
+          <t>OCNCASH</t>
+        </is>
+      </c>
+      <c r="E2771" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="F2771" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="G2771" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="H2771" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="I2771" t="n">
+        <v>20900800</v>
+      </c>
+    </row>
+    <row r="2772">
+      <c r="A2772" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B2772" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C2772" t="inlineStr">
+        <is>
+          <t>0049</t>
+        </is>
+      </c>
+      <c r="D2772" t="inlineStr">
+        <is>
+          <t>OCNCASH</t>
+        </is>
+      </c>
+      <c r="E2772" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="F2772" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="G2772" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="H2772" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="I2772" t="n">
+        <v>19430300</v>
+      </c>
+    </row>
+    <row r="2773">
+      <c r="A2773" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B2773" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C2773" t="inlineStr">
+        <is>
+          <t>0049</t>
+        </is>
+      </c>
+      <c r="D2773" t="inlineStr">
+        <is>
+          <t>OCNCASH</t>
+        </is>
+      </c>
+      <c r="E2773" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="F2773" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="G2773" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="H2773" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="I2773" t="n">
+        <v>21044200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
